--- a/data/landings/cdfw/public/fish_bulletins/raw/fb163/raw/Table20.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb163/raw/Table20.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb163/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb163/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B863C58-2133-7745-A881-E4FB2F4C75DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCCEA47-D70C-A64E-8414-1ED3B5171F79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22380" yWindow="460" windowWidth="26980" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,12 +616,12 @@
   <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+      <selection activeCell="A79" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -2759,13 +2759,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>8</v>
